--- a/database/industries/khodro/khedizel/balancesheet/yearly.xlsx
+++ b/database/industries/khodro/khedizel/balancesheet/yearly.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -36,21 +36,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1391/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1392/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1393/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1394/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1395/12</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1396/12</t>
   </si>
   <si>
@@ -69,21 +54,6 @@
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1393-09-01 (3)</t>
-  </si>
-  <si>
-    <t>1394-02-28 (4)</t>
-  </si>
-  <si>
-    <t>1395-02-25 (9)</t>
-  </si>
-  <si>
-    <t>1396-03-22 (9)</t>
-  </si>
-  <si>
-    <t>1397-03-28 (11)</t>
-  </si>
-  <si>
     <t>1398-03-22 (12)</t>
   </si>
   <si>
@@ -96,7 +66,7 @@
     <t>1401-02-21 (11)</t>
   </si>
   <si>
-    <t>1401-07-30 (5)</t>
+    <t>1401-09-07 (7)</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -132,16 +102,16 @@
     <t>سرمایه گذاری در املاک</t>
   </si>
   <si>
+    <t>داراییهای ثابت مشهود</t>
+  </si>
+  <si>
+    <t>داراییهای نامشهود</t>
+  </si>
+  <si>
+    <t>پیش پرداخت های سرمایه ای</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>داراییهای ثابت مشهود</t>
-  </si>
-  <si>
-    <t>داراییهای نامشهود</t>
-  </si>
-  <si>
-    <t>پیش پرداخت های سرمایه ای</t>
   </si>
   <si>
     <t>سایر دارایی ها</t>
@@ -693,7 +663,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M59"/>
+  <dimension ref="B1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -701,10 +671,10 @@
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="13" width="29" customWidth="1"/>
+    <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -712,13 +682,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -728,13 +693,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -744,13 +704,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -758,13 +713,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    </row>
+    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -774,13 +724,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    </row>
+    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -790,13 +735,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -804,13 +744,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -830,59 +765,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -890,15 +795,10 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -906,195 +806,115 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>168122</v>
+        <v>231543</v>
       </c>
       <c r="E12" s="15">
-        <v>108860</v>
+        <v>656132</v>
       </c>
       <c r="F12" s="15">
-        <v>290780</v>
+        <v>207686</v>
       </c>
       <c r="G12" s="15">
-        <v>257257</v>
+        <v>669958</v>
       </c>
       <c r="H12" s="15">
-        <v>270978</v>
-      </c>
-      <c r="I12" s="15">
-        <v>231543</v>
-      </c>
-      <c r="J12" s="15">
-        <v>656132</v>
-      </c>
-      <c r="K12" s="15">
-        <v>207686</v>
-      </c>
-      <c r="L12" s="15">
-        <v>669958</v>
-      </c>
-      <c r="M12" s="15">
         <v>1174242</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>7187</v>
+        <v>0</v>
       </c>
       <c r="E13" s="11">
-        <v>5958</v>
+        <v>0</v>
       </c>
       <c r="F13" s="11">
-        <v>6147</v>
+        <v>1334024</v>
       </c>
       <c r="G13" s="11">
-        <v>1103</v>
+        <v>0</v>
       </c>
       <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0</v>
-      </c>
-      <c r="J13" s="11">
-        <v>0</v>
-      </c>
-      <c r="K13" s="11">
-        <v>1334024</v>
-      </c>
-      <c r="L13" s="11">
-        <v>0</v>
-      </c>
-      <c r="M13" s="11">
         <v>3520690</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>1119348</v>
+        <v>1809949</v>
       </c>
       <c r="E14" s="15">
-        <v>425458</v>
+        <v>1240837</v>
       </c>
       <c r="F14" s="15">
-        <v>822354</v>
+        <v>309739</v>
       </c>
       <c r="G14" s="15">
-        <v>1334206</v>
+        <v>161951</v>
       </c>
       <c r="H14" s="15">
-        <v>1343907</v>
-      </c>
-      <c r="I14" s="15">
-        <v>1809949</v>
-      </c>
-      <c r="J14" s="15">
-        <v>1240837</v>
-      </c>
-      <c r="K14" s="15">
-        <v>309739</v>
-      </c>
-      <c r="L14" s="15">
-        <v>161951</v>
-      </c>
-      <c r="M14" s="15">
         <v>1155555</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>1237043</v>
+        <v>2020178</v>
       </c>
       <c r="E15" s="11">
-        <v>463286</v>
+        <v>3871387</v>
       </c>
       <c r="F15" s="11">
-        <v>1547137</v>
+        <v>3725745</v>
       </c>
       <c r="G15" s="11">
-        <v>2162675</v>
+        <v>7357813</v>
       </c>
       <c r="H15" s="11">
-        <v>1759722</v>
-      </c>
-      <c r="I15" s="11">
-        <v>2020178</v>
-      </c>
-      <c r="J15" s="11">
-        <v>3871387</v>
-      </c>
-      <c r="K15" s="11">
-        <v>3725745</v>
-      </c>
-      <c r="L15" s="11">
-        <v>7357813</v>
-      </c>
-      <c r="M15" s="11">
         <v>15047359</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>297064</v>
+        <v>1166164</v>
       </c>
       <c r="E16" s="15">
-        <v>1023730</v>
+        <v>571316</v>
       </c>
       <c r="F16" s="15">
-        <v>637978</v>
+        <v>2719210</v>
       </c>
       <c r="G16" s="15">
-        <v>134419</v>
+        <v>7916687</v>
       </c>
       <c r="H16" s="15">
-        <v>330336</v>
-      </c>
-      <c r="I16" s="15">
-        <v>1166164</v>
-      </c>
-      <c r="J16" s="15">
-        <v>571316</v>
-      </c>
-      <c r="K16" s="15">
-        <v>2719210</v>
-      </c>
-      <c r="L16" s="15">
-        <v>7916687</v>
-      </c>
-      <c r="M16" s="15">
         <v>17014705</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
@@ -1107,148 +927,88 @@
         <v>0</v>
       </c>
       <c r="G17" s="11">
-        <v>0</v>
+        <v>24458</v>
       </c>
       <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-      <c r="J17" s="11">
-        <v>0</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11">
         <v>24458</v>
       </c>
-      <c r="M17" s="11">
-        <v>24458</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>2828764</v>
+        <v>5227834</v>
       </c>
       <c r="E18" s="17">
-        <v>2027292</v>
+        <v>6339672</v>
       </c>
       <c r="F18" s="17">
-        <v>3304396</v>
+        <v>8296404</v>
       </c>
       <c r="G18" s="17">
-        <v>3889660</v>
+        <v>16130867</v>
       </c>
       <c r="H18" s="17">
-        <v>3704943</v>
-      </c>
-      <c r="I18" s="17">
-        <v>5227834</v>
-      </c>
-      <c r="J18" s="17">
-        <v>6339672</v>
-      </c>
-      <c r="K18" s="17">
-        <v>8296404</v>
-      </c>
-      <c r="L18" s="17">
-        <v>16130867</v>
-      </c>
-      <c r="M18" s="17">
         <v>37937009</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
-        <v>0</v>
+        <v>926213</v>
       </c>
       <c r="E19" s="11">
-        <v>0</v>
+        <v>122948</v>
       </c>
       <c r="F19" s="11">
-        <v>41233</v>
+        <v>646</v>
       </c>
       <c r="G19" s="11">
-        <v>109840</v>
+        <v>0</v>
       </c>
       <c r="H19" s="11">
-        <v>736750</v>
-      </c>
-      <c r="I19" s="11">
-        <v>926213</v>
-      </c>
-      <c r="J19" s="11">
-        <v>122948</v>
-      </c>
-      <c r="K19" s="11">
-        <v>646</v>
-      </c>
-      <c r="L19" s="11">
-        <v>0</v>
-      </c>
-      <c r="M19" s="11">
         <v>97747</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>30246</v>
+        <v>20490</v>
       </c>
       <c r="E20" s="15">
-        <v>31178</v>
+        <v>20490</v>
       </c>
       <c r="F20" s="15">
-        <v>28610</v>
+        <v>20490</v>
       </c>
       <c r="G20" s="15">
-        <v>27752</v>
+        <v>20490</v>
       </c>
       <c r="H20" s="15">
         <v>20490</v>
       </c>
-      <c r="I20" s="15">
-        <v>20490</v>
-      </c>
-      <c r="J20" s="15">
-        <v>20490</v>
-      </c>
-      <c r="K20" s="15">
-        <v>20490</v>
-      </c>
-      <c r="L20" s="15">
-        <v>20490</v>
-      </c>
-      <c r="M20" s="15">
-        <v>20490</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C21" s="11"/>
-      <c r="D21" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>37</v>
+      <c r="D21" s="11">
+        <v>0</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0</v>
       </c>
       <c r="G21" s="11">
         <v>0</v>
@@ -1256,241 +1016,136 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-      <c r="I21" s="11">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11">
-        <v>0</v>
-      </c>
-      <c r="K21" s="11">
-        <v>0</v>
-      </c>
-      <c r="L21" s="11">
-        <v>0</v>
-      </c>
-      <c r="M21" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>335041</v>
+        <v>590272</v>
       </c>
       <c r="E22" s="15">
-        <v>432571</v>
+        <v>588070</v>
       </c>
       <c r="F22" s="15">
-        <v>452690</v>
+        <v>695263</v>
       </c>
       <c r="G22" s="15">
-        <v>423434</v>
+        <v>1941641</v>
       </c>
       <c r="H22" s="15">
-        <v>580997</v>
-      </c>
-      <c r="I22" s="15">
-        <v>590272</v>
-      </c>
-      <c r="J22" s="15">
-        <v>588070</v>
-      </c>
-      <c r="K22" s="15">
-        <v>695263</v>
-      </c>
-      <c r="L22" s="15">
-        <v>1941641</v>
-      </c>
-      <c r="M22" s="15">
         <v>7341934</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>1410</v>
+        <v>661</v>
       </c>
       <c r="E23" s="11">
-        <v>1610</v>
+        <v>2158</v>
       </c>
       <c r="F23" s="11">
-        <v>1443</v>
+        <v>2534</v>
       </c>
       <c r="G23" s="11">
-        <v>1261</v>
+        <v>1957</v>
       </c>
       <c r="H23" s="11">
-        <v>763</v>
-      </c>
-      <c r="I23" s="11">
-        <v>661</v>
-      </c>
-      <c r="J23" s="11">
-        <v>2158</v>
-      </c>
-      <c r="K23" s="11">
-        <v>2534</v>
-      </c>
-      <c r="L23" s="11">
-        <v>1957</v>
-      </c>
-      <c r="M23" s="11">
         <v>2328</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C24" s="15"/>
-      <c r="D24" s="15">
-        <v>0</v>
-      </c>
-      <c r="E24" s="15">
-        <v>0</v>
+      <c r="D24" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
-        <v>140307</v>
+        <v>0</v>
       </c>
       <c r="E25" s="11">
-        <v>13561</v>
+        <v>0</v>
       </c>
       <c r="F25" s="11">
-        <v>1181</v>
+        <v>132043</v>
       </c>
       <c r="G25" s="11">
-        <v>155</v>
+        <v>175303</v>
       </c>
       <c r="H25" s="11">
-        <v>83</v>
-      </c>
-      <c r="I25" s="11">
-        <v>0</v>
-      </c>
-      <c r="J25" s="11">
-        <v>0</v>
-      </c>
-      <c r="K25" s="11">
-        <v>132043</v>
-      </c>
-      <c r="L25" s="11">
-        <v>175303</v>
-      </c>
-      <c r="M25" s="11">
         <v>172858</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>507004</v>
+        <v>1537636</v>
       </c>
       <c r="E26" s="17">
-        <v>478920</v>
+        <v>733666</v>
       </c>
       <c r="F26" s="17">
-        <v>525157</v>
+        <v>850976</v>
       </c>
       <c r="G26" s="17">
-        <v>562442</v>
+        <v>2139391</v>
       </c>
       <c r="H26" s="17">
-        <v>1339083</v>
-      </c>
-      <c r="I26" s="17">
-        <v>1537636</v>
-      </c>
-      <c r="J26" s="17">
-        <v>733666</v>
-      </c>
-      <c r="K26" s="17">
-        <v>850976</v>
-      </c>
-      <c r="L26" s="17">
-        <v>2139391</v>
-      </c>
-      <c r="M26" s="17">
         <v>7635357</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>3335768</v>
+        <v>6765470</v>
       </c>
       <c r="E27" s="19">
-        <v>2506212</v>
+        <v>7073338</v>
       </c>
       <c r="F27" s="19">
-        <v>3829553</v>
+        <v>9147380</v>
       </c>
       <c r="G27" s="19">
-        <v>4452102</v>
+        <v>18270258</v>
       </c>
       <c r="H27" s="19">
-        <v>5044026</v>
-      </c>
-      <c r="I27" s="19">
-        <v>6765470</v>
-      </c>
-      <c r="J27" s="19">
-        <v>7073338</v>
-      </c>
-      <c r="K27" s="19">
-        <v>9147380</v>
-      </c>
-      <c r="L27" s="19">
-        <v>18270258</v>
-      </c>
-      <c r="M27" s="19">
         <v>45572366</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1498,267 +1153,157 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>794680</v>
+        <v>750416</v>
       </c>
       <c r="E29" s="15">
-        <v>335130</v>
+        <v>528627</v>
       </c>
       <c r="F29" s="15">
-        <v>393454</v>
+        <v>759659</v>
       </c>
       <c r="G29" s="15">
-        <v>969520</v>
+        <v>3778835</v>
       </c>
       <c r="H29" s="15">
-        <v>917553</v>
-      </c>
-      <c r="I29" s="15">
-        <v>750416</v>
-      </c>
-      <c r="J29" s="15">
-        <v>528627</v>
-      </c>
-      <c r="K29" s="15">
-        <v>759659</v>
-      </c>
-      <c r="L29" s="15">
-        <v>3778835</v>
-      </c>
-      <c r="M29" s="15">
-        <v>4876814</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+        <v>4898820</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C30" s="11"/>
-      <c r="D30" s="11">
-        <v>94269</v>
-      </c>
-      <c r="E30" s="11">
-        <v>65259</v>
+      <c r="D30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="F30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="14" t="s">
-        <v>47</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>65236</v>
+        <v>337352</v>
       </c>
       <c r="E31" s="15">
-        <v>90289</v>
+        <v>916917</v>
       </c>
       <c r="F31" s="15">
-        <v>377513</v>
+        <v>828176</v>
       </c>
       <c r="G31" s="15">
-        <v>69101</v>
+        <v>1093367</v>
       </c>
       <c r="H31" s="15">
-        <v>399560</v>
-      </c>
-      <c r="I31" s="15">
-        <v>337352</v>
-      </c>
-      <c r="J31" s="15">
-        <v>916917</v>
-      </c>
-      <c r="K31" s="15">
-        <v>828176</v>
-      </c>
-      <c r="L31" s="15">
-        <v>1093367</v>
-      </c>
-      <c r="M31" s="15">
         <v>8606727</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>137796</v>
+        <v>281078</v>
       </c>
       <c r="E32" s="11">
-        <v>114459</v>
+        <v>249231</v>
       </c>
       <c r="F32" s="11">
-        <v>345728</v>
+        <v>561378</v>
       </c>
       <c r="G32" s="11">
-        <v>368022</v>
+        <v>667189</v>
       </c>
       <c r="H32" s="11">
-        <v>358026</v>
-      </c>
-      <c r="I32" s="11">
-        <v>281078</v>
-      </c>
-      <c r="J32" s="11">
-        <v>249231</v>
-      </c>
-      <c r="K32" s="11">
-        <v>561378</v>
-      </c>
-      <c r="L32" s="11">
-        <v>667189</v>
-      </c>
-      <c r="M32" s="11">
-        <v>1534022</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+        <v>350982</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>0</v>
+        <v>284443</v>
       </c>
       <c r="E33" s="15">
-        <v>0</v>
+        <v>15502</v>
       </c>
       <c r="F33" s="15">
-        <v>0</v>
+        <v>15009</v>
       </c>
       <c r="G33" s="15">
-        <v>0</v>
+        <v>217511</v>
       </c>
       <c r="H33" s="15">
-        <v>25580</v>
-      </c>
-      <c r="I33" s="15">
-        <v>284443</v>
-      </c>
-      <c r="J33" s="15">
-        <v>15502</v>
-      </c>
-      <c r="K33" s="15">
-        <v>15009</v>
-      </c>
-      <c r="L33" s="15">
-        <v>217511</v>
-      </c>
-      <c r="M33" s="15">
         <v>40873</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>1087296</v>
+        <v>1554413</v>
       </c>
       <c r="E34" s="11">
-        <v>461461</v>
+        <v>1434564</v>
       </c>
       <c r="F34" s="11">
-        <v>407710</v>
+        <v>836874</v>
       </c>
       <c r="G34" s="11">
-        <v>369536</v>
+        <v>2416999</v>
       </c>
       <c r="H34" s="11">
-        <v>251004</v>
-      </c>
-      <c r="I34" s="11">
-        <v>1554413</v>
-      </c>
-      <c r="J34" s="11">
-        <v>1434564</v>
-      </c>
-      <c r="K34" s="11">
-        <v>836874</v>
-      </c>
-      <c r="L34" s="11">
-        <v>2416999</v>
-      </c>
-      <c r="M34" s="11">
         <v>5985775</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C35" s="15"/>
-      <c r="D35" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>37</v>
+      <c r="D35" s="15">
+        <v>648063</v>
+      </c>
+      <c r="E35" s="15">
+        <v>1038846</v>
       </c>
       <c r="F35" s="15">
-        <v>151911</v>
+        <v>888522</v>
       </c>
       <c r="G35" s="15">
-        <v>275601</v>
+        <v>327884</v>
       </c>
       <c r="H35" s="15">
-        <v>441739</v>
-      </c>
-      <c r="I35" s="15">
-        <v>648063</v>
-      </c>
-      <c r="J35" s="15">
-        <v>1038846</v>
-      </c>
-      <c r="K35" s="15">
-        <v>888522</v>
-      </c>
-      <c r="L35" s="15">
-        <v>327884</v>
-      </c>
-      <c r="M35" s="15">
         <v>552574</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
@@ -1776,61 +1321,31 @@
       <c r="H36" s="11">
         <v>0</v>
       </c>
-      <c r="I36" s="11">
-        <v>0</v>
-      </c>
-      <c r="J36" s="11">
-        <v>0</v>
-      </c>
-      <c r="K36" s="11">
-        <v>0</v>
-      </c>
-      <c r="L36" s="11">
-        <v>0</v>
-      </c>
-      <c r="M36" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>2179277</v>
+        <v>3855765</v>
       </c>
       <c r="E37" s="17">
-        <v>1066598</v>
+        <v>4183687</v>
       </c>
       <c r="F37" s="17">
-        <v>1676316</v>
+        <v>3889618</v>
       </c>
       <c r="G37" s="17">
-        <v>2051780</v>
+        <v>8501785</v>
       </c>
       <c r="H37" s="17">
-        <v>2393462</v>
-      </c>
-      <c r="I37" s="17">
-        <v>3855765</v>
-      </c>
-      <c r="J37" s="17">
-        <v>4183687</v>
-      </c>
-      <c r="K37" s="17">
-        <v>3889618</v>
-      </c>
-      <c r="L37" s="17">
-        <v>8501785</v>
-      </c>
-      <c r="M37" s="17">
-        <v>21596785</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+        <v>20435751</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
@@ -1848,205 +1363,115 @@
       <c r="H38" s="11">
         <v>0</v>
       </c>
-      <c r="I38" s="11">
-        <v>0</v>
-      </c>
-      <c r="J38" s="11">
-        <v>0</v>
-      </c>
-      <c r="K38" s="11">
-        <v>0</v>
-      </c>
-      <c r="L38" s="11">
-        <v>0</v>
-      </c>
-      <c r="M38" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C39" s="15"/>
-      <c r="D39" s="15" t="s">
-        <v>37</v>
+      <c r="D39" s="15">
+        <v>0</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G39" s="15">
-        <v>0</v>
-      </c>
-      <c r="H39" s="15">
-        <v>0</v>
-      </c>
-      <c r="I39" s="15">
-        <v>0</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K39" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="L39" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="M39" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>19252</v>
+        <v>0</v>
       </c>
       <c r="E40" s="11">
-        <v>10115</v>
+        <v>0</v>
       </c>
       <c r="F40" s="11">
-        <v>1243</v>
+        <v>0</v>
       </c>
       <c r="G40" s="11">
-        <v>0</v>
+        <v>523464</v>
       </c>
       <c r="H40" s="11">
-        <v>0</v>
-      </c>
-      <c r="I40" s="11">
-        <v>0</v>
-      </c>
-      <c r="J40" s="11">
-        <v>0</v>
-      </c>
-      <c r="K40" s="11">
-        <v>0</v>
-      </c>
-      <c r="L40" s="11">
-        <v>523464</v>
-      </c>
-      <c r="M40" s="11">
         <v>5000000</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>7887</v>
+        <v>46935</v>
       </c>
       <c r="E41" s="15">
-        <v>13937</v>
+        <v>61086</v>
       </c>
       <c r="F41" s="15">
-        <v>18782</v>
+        <v>87396</v>
       </c>
       <c r="G41" s="15">
-        <v>28019</v>
+        <v>158230</v>
       </c>
       <c r="H41" s="15">
-        <v>38253</v>
-      </c>
-      <c r="I41" s="15">
-        <v>46935</v>
-      </c>
-      <c r="J41" s="15">
-        <v>61086</v>
-      </c>
-      <c r="K41" s="15">
-        <v>87396</v>
-      </c>
-      <c r="L41" s="15">
-        <v>158230</v>
-      </c>
-      <c r="M41" s="15">
         <v>311911</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>27139</v>
+        <v>46935</v>
       </c>
       <c r="E42" s="19">
-        <v>24052</v>
+        <v>61086</v>
       </c>
       <c r="F42" s="19">
-        <v>20025</v>
+        <v>87396</v>
       </c>
       <c r="G42" s="19">
-        <v>28019</v>
+        <v>681694</v>
       </c>
       <c r="H42" s="19">
-        <v>38253</v>
-      </c>
-      <c r="I42" s="19">
-        <v>46935</v>
-      </c>
-      <c r="J42" s="19">
-        <v>61086</v>
-      </c>
-      <c r="K42" s="19">
-        <v>87396</v>
-      </c>
-      <c r="L42" s="19">
-        <v>681694</v>
-      </c>
-      <c r="M42" s="19">
         <v>5311911</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>2206416</v>
+        <v>3902700</v>
       </c>
       <c r="E43" s="17">
-        <v>1090650</v>
+        <v>4244773</v>
       </c>
       <c r="F43" s="17">
-        <v>1696341</v>
+        <v>3977014</v>
       </c>
       <c r="G43" s="17">
-        <v>2079799</v>
+        <v>9183479</v>
       </c>
       <c r="H43" s="17">
-        <v>2431715</v>
-      </c>
-      <c r="I43" s="17">
-        <v>3902700</v>
-      </c>
-      <c r="J43" s="17">
-        <v>4244773</v>
-      </c>
-      <c r="K43" s="17">
-        <v>3977014</v>
-      </c>
-      <c r="L43" s="17">
-        <v>9183479</v>
-      </c>
-      <c r="M43" s="17">
-        <v>26908696</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+        <v>25747662</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -2054,15 +1479,10 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
@@ -2078,27 +1498,12 @@
         <v>1000000</v>
       </c>
       <c r="H45" s="15">
-        <v>1000000</v>
-      </c>
-      <c r="I45" s="15">
-        <v>1000000</v>
-      </c>
-      <c r="J45" s="15">
-        <v>1000000</v>
-      </c>
-      <c r="K45" s="15">
-        <v>1000000</v>
-      </c>
-      <c r="L45" s="15">
-        <v>1000000</v>
-      </c>
-      <c r="M45" s="15">
         <v>8000000</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -2116,25 +1521,10 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-      <c r="I46" s="11">
-        <v>0</v>
-      </c>
-      <c r="J46" s="11">
-        <v>0</v>
-      </c>
-      <c r="K46" s="11">
-        <v>0</v>
-      </c>
-      <c r="L46" s="11">
-        <v>0</v>
-      </c>
-      <c r="M46" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -2143,8 +1533,8 @@
       <c r="E47" s="15">
         <v>0</v>
       </c>
-      <c r="F47" s="15" t="s">
-        <v>37</v>
+      <c r="F47" s="15">
+        <v>0</v>
       </c>
       <c r="G47" s="15">
         <v>0</v>
@@ -2152,32 +1542,17 @@
       <c r="H47" s="15">
         <v>0</v>
       </c>
-      <c r="I47" s="15">
-        <v>0</v>
-      </c>
-      <c r="J47" s="15">
-        <v>0</v>
-      </c>
-      <c r="K47" s="15">
-        <v>0</v>
-      </c>
-      <c r="L47" s="15">
-        <v>0</v>
-      </c>
-      <c r="M47" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C48" s="11"/>
-      <c r="D48" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>37</v>
+      <c r="D48" s="11">
+        <v>0</v>
+      </c>
+      <c r="E48" s="11">
+        <v>0</v>
       </c>
       <c r="F48" s="11">
         <v>0</v>
@@ -2188,68 +1563,38 @@
       <c r="H48" s="11">
         <v>0</v>
       </c>
-      <c r="I48" s="11">
-        <v>0</v>
-      </c>
-      <c r="J48" s="11">
-        <v>0</v>
-      </c>
-      <c r="K48" s="11">
-        <v>0</v>
-      </c>
-      <c r="L48" s="11">
-        <v>0</v>
-      </c>
-      <c r="M48" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I49" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J49" s="15">
-        <v>0</v>
-      </c>
-      <c r="K49" s="15">
-        <v>0</v>
-      </c>
-      <c r="L49" s="15">
-        <v>0</v>
-      </c>
-      <c r="M49" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E49" s="15">
+        <v>0</v>
+      </c>
+      <c r="F49" s="15">
+        <v>0</v>
+      </c>
+      <c r="G49" s="15">
+        <v>0</v>
+      </c>
+      <c r="H49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>34490</v>
+        <v>100000</v>
       </c>
       <c r="E50" s="11">
-        <v>52849</v>
+        <v>100000</v>
       </c>
       <c r="F50" s="11">
         <v>100000</v>
@@ -2258,27 +1603,12 @@
         <v>100000</v>
       </c>
       <c r="H50" s="11">
-        <v>100000</v>
-      </c>
-      <c r="I50" s="11">
-        <v>100000</v>
-      </c>
-      <c r="J50" s="11">
-        <v>100000</v>
-      </c>
-      <c r="K50" s="11">
-        <v>100000</v>
-      </c>
-      <c r="L50" s="11">
-        <v>100000</v>
-      </c>
-      <c r="M50" s="11">
-        <v>599345</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+        <v>658456</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
@@ -2296,61 +1626,31 @@
       <c r="H51" s="15">
         <v>20000</v>
       </c>
-      <c r="I51" s="15">
-        <v>20000</v>
-      </c>
-      <c r="J51" s="15">
-        <v>20000</v>
-      </c>
-      <c r="K51" s="15">
-        <v>20000</v>
-      </c>
-      <c r="L51" s="15">
-        <v>20000</v>
-      </c>
-      <c r="M51" s="15">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11">
         <v>0</v>
       </c>
-      <c r="E52" s="11">
-        <v>0</v>
-      </c>
-      <c r="F52" s="11">
-        <v>0</v>
-      </c>
-      <c r="G52" s="11">
-        <v>0</v>
-      </c>
-      <c r="H52" s="11">
-        <v>0</v>
-      </c>
-      <c r="I52" s="11">
-        <v>0</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L52" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="M52" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E52" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
@@ -2368,71 +1668,41 @@
       <c r="H53" s="15">
         <v>0</v>
       </c>
-      <c r="I53" s="15">
-        <v>0</v>
-      </c>
-      <c r="J53" s="15">
-        <v>0</v>
-      </c>
-      <c r="K53" s="15">
-        <v>0</v>
-      </c>
-      <c r="L53" s="15">
-        <v>0</v>
-      </c>
-      <c r="M53" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
         <v>0</v>
       </c>
-      <c r="E54" s="11">
-        <v>0</v>
-      </c>
-      <c r="F54" s="11">
-        <v>0</v>
-      </c>
-      <c r="G54" s="11">
-        <v>0</v>
-      </c>
-      <c r="H54" s="11">
-        <v>0</v>
-      </c>
-      <c r="I54" s="11">
-        <v>0</v>
-      </c>
-      <c r="J54" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="K54" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L54" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="M54" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E54" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C55" s="15"/>
-      <c r="D55" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>37</v>
+      <c r="D55" s="15">
+        <v>0</v>
+      </c>
+      <c r="E55" s="15">
+        <v>0</v>
+      </c>
+      <c r="F55" s="15">
+        <v>0</v>
       </c>
       <c r="G55" s="15">
         <v>0</v>
@@ -2440,131 +1710,71 @@
       <c r="H55" s="15">
         <v>0</v>
       </c>
-      <c r="I55" s="15">
-        <v>0</v>
-      </c>
-      <c r="J55" s="15">
-        <v>0</v>
-      </c>
-      <c r="K55" s="15">
-        <v>0</v>
-      </c>
-      <c r="L55" s="15">
-        <v>0</v>
-      </c>
-      <c r="M55" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>74862</v>
+        <v>1742770</v>
       </c>
       <c r="E56" s="11">
-        <v>342713</v>
+        <v>1708565</v>
       </c>
       <c r="F56" s="11">
-        <v>1013212</v>
+        <v>4050366</v>
       </c>
       <c r="G56" s="11">
-        <v>1252303</v>
+        <v>7966779</v>
       </c>
       <c r="H56" s="11">
-        <v>1492311</v>
-      </c>
-      <c r="I56" s="11">
-        <v>1742770</v>
-      </c>
-      <c r="J56" s="11">
-        <v>1708565</v>
-      </c>
-      <c r="K56" s="11">
-        <v>4050366</v>
-      </c>
-      <c r="L56" s="11">
-        <v>7966779</v>
-      </c>
-      <c r="M56" s="11">
-        <v>10044325</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+        <v>11146248</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>1129352</v>
+        <v>2862770</v>
       </c>
       <c r="E57" s="17">
-        <v>1415562</v>
+        <v>2828565</v>
       </c>
       <c r="F57" s="17">
-        <v>2133212</v>
+        <v>5170366</v>
       </c>
       <c r="G57" s="17">
-        <v>2372303</v>
+        <v>9086779</v>
       </c>
       <c r="H57" s="17">
-        <v>2612311</v>
-      </c>
-      <c r="I57" s="17">
-        <v>2862770</v>
-      </c>
-      <c r="J57" s="17">
-        <v>2828565</v>
-      </c>
-      <c r="K57" s="17">
-        <v>5170366</v>
-      </c>
-      <c r="L57" s="17">
-        <v>9086779</v>
-      </c>
-      <c r="M57" s="17">
-        <v>18663670</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+        <v>19824704</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>3335768</v>
+        <v>6765470</v>
       </c>
       <c r="E58" s="19">
-        <v>2506212</v>
+        <v>7073338</v>
       </c>
       <c r="F58" s="19">
-        <v>3829553</v>
+        <v>9147380</v>
       </c>
       <c r="G58" s="19">
-        <v>4452102</v>
+        <v>18270258</v>
       </c>
       <c r="H58" s="19">
-        <v>5044026</v>
-      </c>
-      <c r="I58" s="19">
-        <v>6765470</v>
-      </c>
-      <c r="J58" s="19">
-        <v>7073338</v>
-      </c>
-      <c r="K58" s="19">
-        <v>9147380</v>
-      </c>
-      <c r="L58" s="19">
-        <v>18270258</v>
-      </c>
-      <c r="M58" s="19">
         <v>45572366</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2572,11 +1782,6 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/khodro/khedizel/balancesheet/yearly.xlsx
+++ b/database/industries/khodro/khedizel/balancesheet/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\khodro\khedizel\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khedizel\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB366185-78B3-4D52-8B74-FAEA729253E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>خدیزل-بهمن  دیزل</t>
@@ -66,7 +67,7 @@
     <t>1401-02-21 (11)</t>
   </si>
   <si>
-    <t>1401-09-07 (7)</t>
+    <t>1401-10-29 (8)</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -219,7 +220,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -417,7 +418,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -429,7 +430,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -476,6 +477,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -511,6 +529,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -662,7 +697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1098,7 +1133,7 @@
         <v>175303</v>
       </c>
       <c r="H25" s="11">
-        <v>172858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">

--- a/database/industries/khodro/khedizel/balancesheet/yearly.xlsx
+++ b/database/industries/khodro/khedizel/balancesheet/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khedizel\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khedizel\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB366185-78B3-4D52-8B74-FAEA729253E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455C52AE-A220-489F-914F-C97E046ED6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,12 +49,12 @@
     <t>12 ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1398-03-22 (12)</t>
-  </si>
-  <si>
     <t>1399-04-08 (12)</t>
   </si>
   <si>
@@ -67,7 +64,10 @@
     <t>1401-02-21 (11)</t>
   </si>
   <si>
-    <t>1401-10-29 (8)</t>
+    <t>1402-02-23 (10)</t>
+  </si>
+  <si>
+    <t>1402-02-23 (2)</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -702,14 +702,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -718,7 +718,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -729,7 +729,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -740,7 +740,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -749,7 +749,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -760,7 +760,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -771,7 +771,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -780,7 +780,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -801,7 +801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -822,7 +822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -831,7 +831,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
@@ -842,28 +842,28 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>231543</v>
+        <v>656132</v>
       </c>
       <c r="E12" s="15">
-        <v>656132</v>
+        <v>207686</v>
       </c>
       <c r="F12" s="15">
-        <v>207686</v>
+        <v>669958</v>
       </c>
       <c r="G12" s="15">
-        <v>669958</v>
+        <v>1174242</v>
       </c>
       <c r="H12" s="15">
-        <v>1174242</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>7429894</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
@@ -872,82 +872,82 @@
         <v>0</v>
       </c>
       <c r="E13" s="11">
-        <v>0</v>
+        <v>1334024</v>
       </c>
       <c r="F13" s="11">
-        <v>1334024</v>
+        <v>0</v>
       </c>
       <c r="G13" s="11">
-        <v>0</v>
+        <v>3520690</v>
       </c>
       <c r="H13" s="11">
-        <v>3520690</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>14446292</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>1809949</v>
+        <v>1240837</v>
       </c>
       <c r="E14" s="15">
-        <v>1240837</v>
+        <v>309739</v>
       </c>
       <c r="F14" s="15">
-        <v>309739</v>
+        <v>161951</v>
       </c>
       <c r="G14" s="15">
-        <v>161951</v>
+        <v>1155555</v>
       </c>
       <c r="H14" s="15">
-        <v>1155555</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1831783</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>2020178</v>
+        <v>3871387</v>
       </c>
       <c r="E15" s="11">
-        <v>3871387</v>
+        <v>3725745</v>
       </c>
       <c r="F15" s="11">
-        <v>3725745</v>
+        <v>7357813</v>
       </c>
       <c r="G15" s="11">
-        <v>7357813</v>
+        <v>15047359</v>
       </c>
       <c r="H15" s="11">
-        <v>15047359</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+        <v>19651905</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>1166164</v>
+        <v>571316</v>
       </c>
       <c r="E16" s="15">
-        <v>571316</v>
+        <v>2719210</v>
       </c>
       <c r="F16" s="15">
-        <v>2719210</v>
+        <v>7916687</v>
       </c>
       <c r="G16" s="15">
-        <v>7916687</v>
+        <v>17014705</v>
       </c>
       <c r="H16" s="15">
-        <v>17014705</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+        <v>46320627</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="11">
-        <v>0</v>
+        <v>24458</v>
       </c>
       <c r="G17" s="11">
         <v>24458</v>
@@ -968,49 +968,49 @@
         <v>24458</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>5227834</v>
+        <v>6339672</v>
       </c>
       <c r="E18" s="17">
-        <v>6339672</v>
+        <v>8296404</v>
       </c>
       <c r="F18" s="17">
-        <v>8296404</v>
+        <v>16130867</v>
       </c>
       <c r="G18" s="17">
-        <v>16130867</v>
+        <v>37937009</v>
       </c>
       <c r="H18" s="17">
-        <v>37937009</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>89704959</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
-        <v>926213</v>
+        <v>122948</v>
       </c>
       <c r="E19" s="11">
-        <v>122948</v>
+        <v>646</v>
       </c>
       <c r="F19" s="11">
-        <v>646</v>
+        <v>0</v>
       </c>
       <c r="G19" s="11">
-        <v>0</v>
+        <v>97747</v>
       </c>
       <c r="H19" s="11">
-        <v>97747</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+        <v>215422</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>25</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>20490</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>26</v>
       </c>
@@ -1052,49 +1052,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>590272</v>
+        <v>588070</v>
       </c>
       <c r="E22" s="15">
-        <v>588070</v>
+        <v>695263</v>
       </c>
       <c r="F22" s="15">
-        <v>695263</v>
+        <v>1941641</v>
       </c>
       <c r="G22" s="15">
-        <v>1941641</v>
+        <v>7341934</v>
       </c>
       <c r="H22" s="15">
-        <v>7341934</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>13911365</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>661</v>
+        <v>2158</v>
       </c>
       <c r="E23" s="11">
-        <v>2158</v>
+        <v>2534</v>
       </c>
       <c r="F23" s="11">
-        <v>2534</v>
+        <v>1957</v>
       </c>
       <c r="G23" s="11">
-        <v>1957</v>
+        <v>2328</v>
       </c>
       <c r="H23" s="11">
-        <v>2328</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+        <v>5039</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>29</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>31</v>
       </c>
@@ -1124,61 +1124,61 @@
         <v>0</v>
       </c>
       <c r="E25" s="11">
-        <v>0</v>
+        <v>132043</v>
       </c>
       <c r="F25" s="11">
-        <v>132043</v>
+        <v>175303</v>
       </c>
       <c r="G25" s="11">
-        <v>175303</v>
+        <v>0</v>
       </c>
       <c r="H25" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>1537636</v>
+        <v>733666</v>
       </c>
       <c r="E26" s="17">
-        <v>733666</v>
+        <v>850976</v>
       </c>
       <c r="F26" s="17">
-        <v>850976</v>
+        <v>2139391</v>
       </c>
       <c r="G26" s="17">
-        <v>2139391</v>
+        <v>7635357</v>
       </c>
       <c r="H26" s="17">
-        <v>7635357</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>14325174</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>6765470</v>
+        <v>7073338</v>
       </c>
       <c r="E27" s="19">
-        <v>7073338</v>
+        <v>9147380</v>
       </c>
       <c r="F27" s="19">
-        <v>9147380</v>
+        <v>18270258</v>
       </c>
       <c r="G27" s="19">
-        <v>18270258</v>
+        <v>45572366</v>
       </c>
       <c r="H27" s="19">
-        <v>45572366</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+        <v>104030133</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>34</v>
       </c>
@@ -1189,28 +1189,28 @@
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>750416</v>
+        <v>528627</v>
       </c>
       <c r="E29" s="15">
-        <v>528627</v>
+        <v>759659</v>
       </c>
       <c r="F29" s="15">
-        <v>759659</v>
+        <v>3778835</v>
       </c>
       <c r="G29" s="15">
-        <v>3778835</v>
+        <v>4962467</v>
       </c>
       <c r="H29" s="15">
-        <v>4898820</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+        <v>7783732</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>36</v>
       </c>
@@ -1231,112 +1231,112 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>337352</v>
+        <v>916917</v>
       </c>
       <c r="E31" s="15">
-        <v>916917</v>
+        <v>828176</v>
       </c>
       <c r="F31" s="15">
-        <v>828176</v>
+        <v>1093367</v>
       </c>
       <c r="G31" s="15">
-        <v>1093367</v>
+        <v>8606726</v>
       </c>
       <c r="H31" s="15">
-        <v>8606727</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+        <v>27677703</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>281078</v>
+        <v>249231</v>
       </c>
       <c r="E32" s="11">
-        <v>249231</v>
+        <v>561378</v>
       </c>
       <c r="F32" s="11">
-        <v>561378</v>
+        <v>667189</v>
       </c>
       <c r="G32" s="11">
-        <v>667189</v>
+        <v>350982</v>
       </c>
       <c r="H32" s="11">
-        <v>350982</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4165407</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>284443</v>
+        <v>15502</v>
       </c>
       <c r="E33" s="15">
-        <v>15502</v>
+        <v>15009</v>
       </c>
       <c r="F33" s="15">
-        <v>15009</v>
+        <v>217511</v>
       </c>
       <c r="G33" s="15">
-        <v>217511</v>
+        <v>40873</v>
       </c>
       <c r="H33" s="15">
-        <v>40873</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33087</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>1554413</v>
+        <v>1434564</v>
       </c>
       <c r="E34" s="11">
-        <v>1434564</v>
+        <v>836874</v>
       </c>
       <c r="F34" s="11">
-        <v>836874</v>
+        <v>2416999</v>
       </c>
       <c r="G34" s="11">
-        <v>2416999</v>
+        <v>5985775</v>
       </c>
       <c r="H34" s="11">
-        <v>5985775</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+        <v>8436789</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
-        <v>648063</v>
+        <v>1038846</v>
       </c>
       <c r="E35" s="15">
-        <v>1038846</v>
+        <v>888522</v>
       </c>
       <c r="F35" s="15">
-        <v>888522</v>
+        <v>327884</v>
       </c>
       <c r="G35" s="15">
-        <v>327884</v>
+        <v>552574</v>
       </c>
       <c r="H35" s="15">
-        <v>552574</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4150111</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>42</v>
       </c>
@@ -1357,28 +1357,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>3855765</v>
+        <v>4183687</v>
       </c>
       <c r="E37" s="17">
-        <v>4183687</v>
+        <v>3889618</v>
       </c>
       <c r="F37" s="17">
-        <v>3889618</v>
+        <v>8501785</v>
       </c>
       <c r="G37" s="17">
-        <v>8501785</v>
+        <v>20499397</v>
       </c>
       <c r="H37" s="17">
-        <v>20435751</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+        <v>52246829</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>44</v>
       </c>
@@ -1399,13 +1399,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C39" s="15"/>
-      <c r="D39" s="15">
-        <v>0</v>
+      <c r="D39" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>30</v>
@@ -1420,7 +1420,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>46</v>
       </c>
@@ -1432,79 +1432,79 @@
         <v>0</v>
       </c>
       <c r="F40" s="11">
-        <v>0</v>
+        <v>523464</v>
       </c>
       <c r="G40" s="11">
-        <v>523464</v>
+        <v>5000000</v>
       </c>
       <c r="H40" s="11">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>46935</v>
+        <v>61086</v>
       </c>
       <c r="E41" s="15">
-        <v>61086</v>
+        <v>87396</v>
       </c>
       <c r="F41" s="15">
-        <v>87396</v>
+        <v>158230</v>
       </c>
       <c r="G41" s="15">
-        <v>158230</v>
+        <v>311911</v>
       </c>
       <c r="H41" s="15">
-        <v>311911</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+        <v>583432</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>46935</v>
+        <v>61086</v>
       </c>
       <c r="E42" s="19">
-        <v>61086</v>
+        <v>87396</v>
       </c>
       <c r="F42" s="19">
-        <v>87396</v>
+        <v>681694</v>
       </c>
       <c r="G42" s="19">
-        <v>681694</v>
+        <v>5311911</v>
       </c>
       <c r="H42" s="19">
-        <v>5311911</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+        <v>15583432</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>3902700</v>
+        <v>4244773</v>
       </c>
       <c r="E43" s="17">
-        <v>4244773</v>
+        <v>3977014</v>
       </c>
       <c r="F43" s="17">
-        <v>3977014</v>
+        <v>9183479</v>
       </c>
       <c r="G43" s="17">
-        <v>9183479</v>
+        <v>25811308</v>
       </c>
       <c r="H43" s="17">
-        <v>25747662</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+        <v>67830261</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>50</v>
       </c>
@@ -1515,7 +1515,7 @@
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>51</v>
       </c>
@@ -1530,13 +1530,13 @@
         <v>1000000</v>
       </c>
       <c r="G45" s="15">
-        <v>1000000</v>
+        <v>8000000</v>
       </c>
       <c r="H45" s="15">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+        <v>16900000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>52</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>53</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>54</v>
       </c>
@@ -1599,13 +1599,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="15" t="s">
-        <v>30</v>
+      <c r="D49" s="15">
+        <v>0</v>
       </c>
       <c r="E49" s="15">
         <v>0</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
@@ -1635,13 +1635,13 @@
         <v>100000</v>
       </c>
       <c r="G50" s="11">
-        <v>100000</v>
+        <v>658456</v>
       </c>
       <c r="H50" s="11">
-        <v>658456</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1690000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>57</v>
       </c>
@@ -1662,13 +1662,13 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C52" s="11"/>
-      <c r="D52" s="11">
-        <v>0</v>
+      <c r="D52" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>30</v>
@@ -1683,7 +1683,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>59</v>
       </c>
@@ -1704,13 +1704,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C54" s="11"/>
-      <c r="D54" s="11">
-        <v>0</v>
+      <c r="D54" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>30</v>
@@ -1725,7 +1725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>61</v>
       </c>
@@ -1746,70 +1746,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>1742770</v>
+        <v>1708565</v>
       </c>
       <c r="E56" s="11">
-        <v>1708565</v>
+        <v>4050366</v>
       </c>
       <c r="F56" s="11">
-        <v>4050366</v>
+        <v>7966779</v>
       </c>
       <c r="G56" s="11">
-        <v>7966779</v>
+        <v>11082602</v>
       </c>
       <c r="H56" s="11">
-        <v>11146248</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+        <v>17589872</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>2862770</v>
+        <v>2828565</v>
       </c>
       <c r="E57" s="17">
-        <v>2828565</v>
+        <v>5170366</v>
       </c>
       <c r="F57" s="17">
-        <v>5170366</v>
+        <v>9086779</v>
       </c>
       <c r="G57" s="17">
-        <v>9086779</v>
+        <v>19761058</v>
       </c>
       <c r="H57" s="17">
-        <v>19824704</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+        <v>36199872</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>64</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>6765470</v>
+        <v>7073338</v>
       </c>
       <c r="E58" s="19">
-        <v>7073338</v>
+        <v>9147380</v>
       </c>
       <c r="F58" s="19">
-        <v>9147380</v>
+        <v>18270258</v>
       </c>
       <c r="G58" s="19">
-        <v>18270258</v>
+        <v>45572366</v>
       </c>
       <c r="H58" s="19">
-        <v>45572366</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+        <v>104030133</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
